--- a/biology/Botanique/Eragrostis_minor/Eragrostis_minor.xlsx
+++ b/biology/Botanique/Eragrostis_minor/Eragrostis_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eragrostis minor, la petite éragrostide ou l'Eragrostis faux-pâturin, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire du bassin méditerranéen, devenue subcosmopolite.
 C'est une petite plante herbacée annuelle, de 10 à 40 cm de haut, qui se rencontre fréquemment sur les bords de route, dans les rues et places pavées, mais aussi sur le pentes des montagnes et dans les prairies. On la trouve dans toutes les régions tropicales, subtropicales et tempérées du monde.
@@ -512,12 +524,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La première description de cette espèce a été faite par Linné, dans son Species plantarum publié en 1753, sous le nom de Poa eragrostis L. (basionyme)[1].
-Il a été remplacé par le nom actuel, Eragrostis minor (nomen novum), publié en 1809 par Nicolaus Thomas Host[2].
-Liste des variétés
-Selon Tropicos                                           (28 juin 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description de cette espèce a été faite par Linné, dans son Species plantarum publié en 1753, sous le nom de Poa eragrostis L. (basionyme).
+Il a été remplacé par le nom actuel, Eragrostis minor (nomen novum), publié en 1809 par Nicolaus Thomas Host.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eragrostis_minor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eragrostis_minor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Eragrostis minor var. luxurians Grossh.
 variété Eragrostis minor var. major (L. ex Kunth) Beck
 variété Eragrostis minor var. maritima Merino
